--- a/results/mp/tinybert/corona/confidence/168/topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,39 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -97,163 +85,184 @@
     <t>no</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>boost</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>$</t>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>our</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>!</t>
+    <t>your</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>the</t>
+    <t>in</t>
   </si>
 </sst>
 </file>
@@ -611,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -730,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L5">
         <v>23</v>
@@ -822,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.88</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7647058823529411</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,31 +907,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L7">
+        <v>23</v>
+      </c>
+      <c r="M7">
+        <v>23</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>4</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L7">
-        <v>44</v>
-      </c>
-      <c r="M7">
-        <v>44</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7402597402597403</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="C8">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="D8">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L8">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7272727272727273</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1030,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.825</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5833333333333334</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8235294117647058</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5416666666666666</v>
+        <v>0.2461240310077519</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>389</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8214285714285714</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1189,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4375</v>
+        <v>0.24</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8148148148148148</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1239,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4285714285714285</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1289,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3390557939914163</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="C15">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7931034482758621</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3333333333333333</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2758620689655172</v>
+        <v>0.05</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,269 +1407,149 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>342</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.725</v>
+      </c>
+      <c r="L17">
+        <v>116</v>
+      </c>
+      <c r="M17">
+        <v>116</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L18">
+        <v>34</v>
+      </c>
+      <c r="M18">
+        <v>34</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="L19">
+        <v>31</v>
+      </c>
+      <c r="M19">
+        <v>31</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L20">
+        <v>60</v>
+      </c>
+      <c r="M20">
+        <v>60</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.625</v>
+      </c>
+      <c r="L21">
+        <v>15</v>
+      </c>
+      <c r="M21">
+        <v>15</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K17">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L17">
-        <v>18</v>
-      </c>
-      <c r="M17">
-        <v>18</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>66</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18">
-        <v>0.68</v>
-      </c>
-      <c r="L18">
-        <v>17</v>
-      </c>
-      <c r="M18">
-        <v>17</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2</v>
-      </c>
-      <c r="C19">
-        <v>16</v>
-      </c>
-      <c r="D19">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>64</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19">
-        <v>0.6712328767123288</v>
-      </c>
-      <c r="L19">
-        <v>49</v>
-      </c>
-      <c r="M19">
-        <v>49</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1727272727272727</v>
-      </c>
-      <c r="C20">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>91</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L20">
-        <v>16</v>
-      </c>
-      <c r="M20">
-        <v>16</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1037037037037037</v>
-      </c>
-      <c r="C21">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>121</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21">
-        <v>0.65</v>
-      </c>
-      <c r="L21">
-        <v>13</v>
-      </c>
-      <c r="M21">
-        <v>13</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.04301075268817205</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>178</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K22">
-        <v>0.6410256410256411</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1677,16 +1566,16 @@
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1698,21 +1587,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1724,21 +1613,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.5757575757575758</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1750,21 +1639,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.5555555555555556</v>
+        <v>0.5248041775456919</v>
       </c>
       <c r="L26">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="M26">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1776,21 +1665,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>64</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.5454545454545454</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L27">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="M27">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1802,21 +1691,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.5352112676056338</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L28">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="M28">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1828,21 +1717,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>99</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.5294117647058824</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L29">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1854,21 +1743,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.5038759689922481</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L30">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1880,21 +1769,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1906,21 +1795,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.4705882352941176</v>
+        <v>0.425</v>
       </c>
       <c r="L32">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1932,21 +1821,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.4673913043478261</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L33">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1958,21 +1847,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.4285714285714285</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L34">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1984,21 +1873,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.3714285714285714</v>
+        <v>0.3347280334728033</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2010,21 +1899,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.36</v>
+        <v>0.328125</v>
       </c>
       <c r="L36">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2036,21 +1925,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.2972972972972973</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2062,21 +1951,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.2916666666666667</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2088,21 +1977,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.2368421052631579</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="L39">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2114,21 +2003,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>29</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.1481481481481481</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="L40">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2140,21 +2029,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>46</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.04040404040404041</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="L41">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2166,21 +2055,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>190</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.03658536585365853</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2192,21 +2081,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.03070175438596491</v>
+        <v>0.03243847874720358</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2218,21 +2107,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>442</v>
+        <v>865</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.02582159624413146</v>
+        <v>0.03</v>
       </c>
       <c r="L44">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M44">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2244,73 +2133,73 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>415</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.0173697270471464</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="L45">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>396</v>
+        <v>959</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K46">
-        <v>0.01264488935721812</v>
+        <v>0.0244173140954495</v>
       </c>
       <c r="L46">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N46">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>937</v>
+        <v>879</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K47">
-        <v>0.009698275862068966</v>
+        <v>0.02376599634369287</v>
       </c>
       <c r="L47">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2322,163 +2211,371 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>919</v>
+        <v>534</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K48">
-        <v>0.008021390374331552</v>
+        <v>0.01934015927189989</v>
       </c>
       <c r="L48">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N48">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="O48">
-        <v>0.09999999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1113</v>
+        <v>862</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K49">
-        <v>0.007462686567164179</v>
+        <v>0.01635514018691589</v>
       </c>
       <c r="L49">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N49">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O49">
-        <v>0.12</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>931</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K50">
-        <v>0.006876790830945559</v>
+        <v>0.01614763552479815</v>
       </c>
       <c r="L50">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N50">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>1733</v>
+        <v>853</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K51">
-        <v>0.005741127348643006</v>
+        <v>0.01556739041376485</v>
       </c>
       <c r="L51">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="M51">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>1905</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K52">
-        <v>0.004478566858605247</v>
+        <v>0.01449953227315248</v>
       </c>
       <c r="L52">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N52">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="O52">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>1556</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K53">
+        <v>0.01422275641025641</v>
+      </c>
+      <c r="L53">
+        <v>71</v>
+      </c>
+      <c r="M53">
+        <v>75</v>
+      </c>
+      <c r="N53">
+        <v>0.95</v>
+      </c>
+      <c r="O53">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4921</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K54">
+        <v>0.01410730804810361</v>
+      </c>
+      <c r="L54">
+        <v>61</v>
+      </c>
+      <c r="M54">
+        <v>65</v>
+      </c>
+      <c r="N54">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O54">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K55">
+        <v>0.01386286998875983</v>
+      </c>
+      <c r="L55">
+        <v>37</v>
+      </c>
+      <c r="M55">
+        <v>41</v>
+      </c>
+      <c r="N55">
+        <v>0.9</v>
+      </c>
+      <c r="O55">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K56">
+        <v>0.01258680555555556</v>
+      </c>
+      <c r="L56">
+        <v>29</v>
+      </c>
+      <c r="M56">
+        <v>34</v>
+      </c>
+      <c r="N56">
+        <v>0.85</v>
+      </c>
+      <c r="O56">
+        <v>0.15</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K57">
+        <v>0.01193467336683417</v>
+      </c>
+      <c r="L57">
+        <v>19</v>
+      </c>
+      <c r="M57">
+        <v>21</v>
+      </c>
+      <c r="N57">
+        <v>0.9</v>
+      </c>
+      <c r="O57">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K53">
-        <v>0.004028197381671702</v>
-      </c>
-      <c r="L53">
-        <v>8</v>
-      </c>
-      <c r="M53">
-        <v>11</v>
-      </c>
-      <c r="N53">
-        <v>0.73</v>
-      </c>
-      <c r="O53">
-        <v>0.27</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>1978</v>
+      <c r="K58">
+        <v>0.01127214170692432</v>
+      </c>
+      <c r="L58">
+        <v>35</v>
+      </c>
+      <c r="M58">
+        <v>37</v>
+      </c>
+      <c r="N58">
+        <v>0.95</v>
+      </c>
+      <c r="O58">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K59">
+        <v>0.01007361487795428</v>
+      </c>
+      <c r="L59">
+        <v>52</v>
+      </c>
+      <c r="M59">
+        <v>55</v>
+      </c>
+      <c r="N59">
+        <v>0.95</v>
+      </c>
+      <c r="O59">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K60">
+        <v>0.007993268826251577</v>
+      </c>
+      <c r="L60">
+        <v>19</v>
+      </c>
+      <c r="M60">
+        <v>21</v>
+      </c>
+      <c r="N60">
+        <v>0.9</v>
+      </c>
+      <c r="O60">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K61">
+        <v>0.007424593967517401</v>
+      </c>
+      <c r="L61">
+        <v>16</v>
+      </c>
+      <c r="M61">
+        <v>19</v>
+      </c>
+      <c r="N61">
+        <v>0.84</v>
+      </c>
+      <c r="O61">
+        <v>0.16</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2139</v>
       </c>
     </row>
   </sheetData>
